--- a/program/data/T3500_25_digital/emi_field_3500.xlsx
+++ b/program/data/T3500_25_digital/emi_field_3500.xlsx
@@ -2766,31 +2766,31 @@
         <v>0.39416</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3845399999999999</v>
+        <v>0.038454</v>
       </c>
       <c r="W16" t="n">
-        <v>0.37674</v>
+        <v>0.037674</v>
       </c>
       <c r="X16" t="n">
-        <v>0.3710199999999999</v>
+        <v>0.037102</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3676399999999999</v>
+        <v>0.03676399999999999</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.3663399999999999</v>
+        <v>0.03663399999999999</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.3676399999999999</v>
+        <v>0.03676399999999999</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.3710199999999999</v>
+        <v>0.037102</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.37674</v>
+        <v>0.037674</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.3845399999999999</v>
+        <v>0.038454</v>
       </c>
       <c r="AE16" t="n">
         <v>0.39416</v>
@@ -2912,43 +2912,43 @@
         <v>0.39962</v>
       </c>
       <c r="T17" t="n">
-        <v>0.3855799999999999</v>
+        <v>0.038558</v>
       </c>
       <c r="U17" t="n">
-        <v>0.37336</v>
+        <v>0.037336</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3627</v>
+        <v>0.03627</v>
       </c>
       <c r="W17" t="n">
-        <v>0.3541199999999999</v>
+        <v>0.035412</v>
       </c>
       <c r="X17" t="n">
-        <v>0.34788</v>
+        <v>0.034788</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.3439799999999999</v>
+        <v>0.03439799999999999</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.3426799999999999</v>
+        <v>0.034268</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.3439799999999999</v>
+        <v>0.03439799999999999</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.34788</v>
+        <v>0.034788</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3541199999999999</v>
+        <v>0.035412</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.3627</v>
+        <v>0.03627</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.37336</v>
+        <v>0.037336</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.3855799999999999</v>
+        <v>0.038558</v>
       </c>
       <c r="AG17" t="n">
         <v>0.39962</v>
@@ -3061,49 +3061,49 @@
         <v>0.3975399999999999</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3811599999999999</v>
+        <v>0.038116</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3663399999999999</v>
+        <v>0.03663399999999999</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3530799999999999</v>
+        <v>0.035308</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3413799999999999</v>
+        <v>0.03413799999999999</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3320199999999999</v>
+        <v>0.03320199999999999</v>
       </c>
       <c r="X18" t="n">
-        <v>0.325</v>
+        <v>0.03249999999999999</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.3205799999999999</v>
+        <v>0.032058</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.31902</v>
+        <v>0.031902</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.3205799999999999</v>
+        <v>0.032058</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.325</v>
+        <v>0.03249999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3320199999999999</v>
+        <v>0.03320199999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.3413799999999999</v>
+        <v>0.03413799999999999</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.3530799999999999</v>
+        <v>0.035308</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.3663399999999999</v>
+        <v>0.03663399999999999</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.3811599999999999</v>
+        <v>0.038116</v>
       </c>
       <c r="AH18" t="n">
         <v>0.3975399999999999</v>
@@ -3210,55 +3210,55 @@
         <v>0.39962</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3811599999999999</v>
+        <v>0.038116</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3639999999999999</v>
+        <v>0.03639999999999999</v>
       </c>
       <c r="T19" t="n">
-        <v>0.34788</v>
+        <v>0.034788</v>
       </c>
       <c r="U19" t="n">
-        <v>0.3333199999999999</v>
+        <v>0.03333199999999999</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3205799999999999</v>
+        <v>0.032058</v>
       </c>
       <c r="W19" t="n">
-        <v>0.30992</v>
+        <v>0.030992</v>
       </c>
       <c r="X19" t="n">
-        <v>0.3021199999999999</v>
+        <v>0.030212</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2971799999999999</v>
+        <v>0.02971799999999999</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.2953599999999999</v>
+        <v>0.02953599999999999</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.2971799999999999</v>
+        <v>0.02971799999999999</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.3021199999999999</v>
+        <v>0.030212</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.30992</v>
+        <v>0.030992</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.3205799999999999</v>
+        <v>0.032058</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.3333199999999999</v>
+        <v>0.03333199999999999</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.34788</v>
+        <v>0.034788</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.3639999999999999</v>
+        <v>0.03639999999999999</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.3811599999999999</v>
+        <v>0.038116</v>
       </c>
       <c r="AI19" t="n">
         <v>0.39962</v>
@@ -3359,61 +3359,61 @@
         <v>0.4056</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3855799999999999</v>
+        <v>0.038558</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3663399999999999</v>
+        <v>0.03663399999999999</v>
       </c>
       <c r="S20" t="n">
-        <v>0.34788</v>
+        <v>0.034788</v>
       </c>
       <c r="T20" t="n">
-        <v>0.3304599999999999</v>
+        <v>0.03304599999999999</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3145999999999999</v>
+        <v>0.03145999999999999</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3005599999999999</v>
+        <v>0.03005599999999999</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2886</v>
+        <v>0.02886</v>
       </c>
       <c r="X20" t="n">
-        <v>0.2794999999999999</v>
+        <v>0.02794999999999999</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2737799999999999</v>
+        <v>0.02737799999999999</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.2716999999999999</v>
+        <v>0.02716999999999999</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.2737799999999999</v>
+        <v>0.02737799999999999</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.2794999999999999</v>
+        <v>0.02794999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2886</v>
+        <v>0.02886</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.3005599999999999</v>
+        <v>0.03005599999999999</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.3145999999999999</v>
+        <v>0.03145999999999999</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.3304599999999999</v>
+        <v>0.03304599999999999</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.34788</v>
+        <v>0.034788</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.3663399999999999</v>
+        <v>0.03663399999999999</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.3855799999999999</v>
+        <v>0.038558</v>
       </c>
       <c r="AJ20" t="n">
         <v>0.4056</v>
@@ -3511,61 +3511,61 @@
         <v>0.39416</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.37336</v>
+        <v>0.037336</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3530799999999999</v>
+        <v>0.035308</v>
       </c>
       <c r="S21" t="n">
-        <v>0.3333199999999999</v>
+        <v>0.03333199999999999</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3145999999999999</v>
+        <v>0.03145999999999999</v>
       </c>
       <c r="U21" t="n">
-        <v>0.2971799999999999</v>
+        <v>0.02971799999999999</v>
       </c>
       <c r="V21" t="n">
-        <v>0.28132</v>
+        <v>0.02813199999999999</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2678</v>
+        <v>0.02678</v>
       </c>
       <c r="X21" t="n">
-        <v>0.2573999999999999</v>
+        <v>0.02574</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2506399999999999</v>
+        <v>0.025064</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.2483</v>
+        <v>0.02483</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.2506399999999999</v>
+        <v>0.025064</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.2573999999999999</v>
+        <v>0.02574</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.2678</v>
+        <v>0.02678</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.28132</v>
+        <v>0.02813199999999999</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.2971799999999999</v>
+        <v>0.02971799999999999</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.3145999999999999</v>
+        <v>0.03145999999999999</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.3333199999999999</v>
+        <v>0.03333199999999999</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.3530799999999999</v>
+        <v>0.035308</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.37336</v>
+        <v>0.037336</v>
       </c>
       <c r="AJ21" t="n">
         <v>0.39416</v>
@@ -3660,67 +3660,67 @@
         <v>0.4066399999999999</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3845399999999999</v>
+        <v>0.038454</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.3627</v>
+        <v>0.03627</v>
       </c>
       <c r="R22" t="n">
-        <v>0.3413799999999999</v>
+        <v>0.03413799999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>0.3205799999999999</v>
+        <v>0.032058</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3005599999999999</v>
+        <v>0.03005599999999999</v>
       </c>
       <c r="U22" t="n">
-        <v>0.28132</v>
+        <v>0.02813199999999999</v>
       </c>
       <c r="V22" t="n">
-        <v>0.2636399999999999</v>
+        <v>0.026364</v>
       </c>
       <c r="W22" t="n">
-        <v>0.2483</v>
+        <v>0.02483</v>
       </c>
       <c r="X22" t="n">
-        <v>0.23582</v>
+        <v>0.023582</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.2275</v>
+        <v>0.02275</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.22464</v>
+        <v>0.022464</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.2275</v>
+        <v>0.02275</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.23582</v>
+        <v>0.023582</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.2483</v>
+        <v>0.02483</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.2636399999999999</v>
+        <v>0.026364</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.28132</v>
+        <v>0.02813199999999999</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.3005599999999999</v>
+        <v>0.03005599999999999</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.3205799999999999</v>
+        <v>0.032058</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.3413799999999999</v>
+        <v>0.03413799999999999</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.3627</v>
+        <v>0.03627</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.3845399999999999</v>
+        <v>0.038454</v>
       </c>
       <c r="AK22" t="n">
         <v>0.4066399999999999</v>
@@ -3812,67 +3812,67 @@
         <v>0.39962</v>
       </c>
       <c r="P23" t="n">
-        <v>0.37674</v>
+        <v>0.037674</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3541199999999999</v>
+        <v>0.035412</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3320199999999999</v>
+        <v>0.03320199999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>0.30992</v>
+        <v>0.030992</v>
       </c>
       <c r="T23" t="n">
-        <v>0.2886</v>
+        <v>0.02886</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2678</v>
+        <v>0.02678</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2483</v>
+        <v>0.02483</v>
       </c>
       <c r="W23" t="n">
-        <v>0.2303599999999999</v>
+        <v>0.02303599999999999</v>
       </c>
       <c r="X23" t="n">
-        <v>0.2152799999999999</v>
+        <v>0.021528</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.2046199999999999</v>
+        <v>0.020462</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.2009799999999999</v>
+        <v>0.02009799999999999</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.2046199999999999</v>
+        <v>0.020462</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.2152799999999999</v>
+        <v>0.021528</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.2303599999999999</v>
+        <v>0.02303599999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.2483</v>
+        <v>0.02483</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.2678</v>
+        <v>0.02678</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.2886</v>
+        <v>0.02886</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.30992</v>
+        <v>0.030992</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.3320199999999999</v>
+        <v>0.03320199999999999</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.3541199999999999</v>
+        <v>0.035412</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.37674</v>
+        <v>0.037674</v>
       </c>
       <c r="AK23" t="n">
         <v>0.39962</v>
@@ -3964,67 +3964,67 @@
         <v>0.39416</v>
       </c>
       <c r="P24" t="n">
-        <v>0.3710199999999999</v>
+        <v>0.037102</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.34788</v>
+        <v>0.034788</v>
       </c>
       <c r="R24" t="n">
-        <v>0.325</v>
+        <v>0.03249999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>0.3021199999999999</v>
+        <v>0.030212</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2794999999999999</v>
+        <v>0.02794999999999999</v>
       </c>
       <c r="U24" t="n">
-        <v>0.2573999999999999</v>
+        <v>0.02574</v>
       </c>
       <c r="V24" t="n">
-        <v>0.23582</v>
+        <v>0.023582</v>
       </c>
       <c r="W24" t="n">
-        <v>0.2152799999999999</v>
+        <v>0.021528</v>
       </c>
       <c r="X24" t="n">
-        <v>0.1968199999999999</v>
+        <v>0.01968199999999999</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.18278</v>
+        <v>0.018278</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.1773199999999999</v>
+        <v>0.01773199999999999</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.18278</v>
+        <v>0.018278</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.1968199999999999</v>
+        <v>0.01968199999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.2152799999999999</v>
+        <v>0.021528</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.23582</v>
+        <v>0.023582</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.2573999999999999</v>
+        <v>0.02574</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.2794999999999999</v>
+        <v>0.02794999999999999</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.3021199999999999</v>
+        <v>0.030212</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.325</v>
+        <v>0.03249999999999999</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.34788</v>
+        <v>0.034788</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.3710199999999999</v>
+        <v>0.037102</v>
       </c>
       <c r="AK24" t="n">
         <v>0.39416</v>
@@ -4116,67 +4116,67 @@
         <v>0.3910399999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>0.3676399999999999</v>
+        <v>0.03676399999999999</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3439799999999999</v>
+        <v>0.03439799999999999</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3205799999999999</v>
+        <v>0.032058</v>
       </c>
       <c r="S25" t="n">
-        <v>0.2971799999999999</v>
+        <v>0.02971799999999999</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2737799999999999</v>
+        <v>0.02737799999999999</v>
       </c>
       <c r="U25" t="n">
-        <v>0.2506399999999999</v>
+        <v>0.025064</v>
       </c>
       <c r="V25" t="n">
-        <v>0.2275</v>
+        <v>0.02275</v>
       </c>
       <c r="W25" t="n">
-        <v>0.2046199999999999</v>
+        <v>0.020462</v>
       </c>
       <c r="X25" t="n">
-        <v>0.18278</v>
+        <v>0.018278</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.1635399999999999</v>
+        <v>0.01635399999999999</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.1536599999999999</v>
+        <v>0.01536599999999999</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.1635399999999999</v>
+        <v>0.01635399999999999</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.18278</v>
+        <v>0.018278</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.2046199999999999</v>
+        <v>0.020462</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.2275</v>
+        <v>0.02275</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.2506399999999999</v>
+        <v>0.025064</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.2737799999999999</v>
+        <v>0.02737799999999999</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.2971799999999999</v>
+        <v>0.02971799999999999</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.3205799999999999</v>
+        <v>0.032058</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.3439799999999999</v>
+        <v>0.03439799999999999</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.3676399999999999</v>
+        <v>0.03676399999999999</v>
       </c>
       <c r="AK25" t="n">
         <v>0.3910399999999999</v>
@@ -4268,67 +4268,67 @@
         <v>0.39</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3663399999999999</v>
+        <v>0.03663399999999999</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3426799999999999</v>
+        <v>0.034268</v>
       </c>
       <c r="R26" t="n">
-        <v>0.31902</v>
+        <v>0.031902</v>
       </c>
       <c r="S26" t="n">
-        <v>0.2953599999999999</v>
+        <v>0.02953599999999999</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2716999999999999</v>
+        <v>0.02716999999999999</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2483</v>
+        <v>0.02483</v>
       </c>
       <c r="V26" t="n">
-        <v>0.22464</v>
+        <v>0.022464</v>
       </c>
       <c r="W26" t="n">
-        <v>0.2009799999999999</v>
+        <v>0.02009799999999999</v>
       </c>
       <c r="X26" t="n">
-        <v>0.1773199999999999</v>
+        <v>0.01773199999999999</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.1536599999999999</v>
+        <v>0.01536599999999999</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.013</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.1536599999999999</v>
+        <v>0.01536599999999999</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.1773199999999999</v>
+        <v>0.01773199999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.2009799999999999</v>
+        <v>0.02009799999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.22464</v>
+        <v>0.022464</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.2483</v>
+        <v>0.02483</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.2716999999999999</v>
+        <v>0.02716999999999999</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.2953599999999999</v>
+        <v>0.02953599999999999</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.31902</v>
+        <v>0.031902</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.3426799999999999</v>
+        <v>0.034268</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.3663399999999999</v>
+        <v>0.03663399999999999</v>
       </c>
       <c r="AK26" t="n">
         <v>0.39</v>
@@ -4420,67 +4420,67 @@
         <v>0.3910399999999999</v>
       </c>
       <c r="P27" t="n">
-        <v>0.3676399999999999</v>
+        <v>0.03676399999999999</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.3439799999999999</v>
+        <v>0.03439799999999999</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3205799999999999</v>
+        <v>0.032058</v>
       </c>
       <c r="S27" t="n">
-        <v>0.2971799999999999</v>
+        <v>0.02971799999999999</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2737799999999999</v>
+        <v>0.02737799999999999</v>
       </c>
       <c r="U27" t="n">
-        <v>0.2506399999999999</v>
+        <v>0.025064</v>
       </c>
       <c r="V27" t="n">
-        <v>0.2275</v>
+        <v>0.02275</v>
       </c>
       <c r="W27" t="n">
-        <v>0.2046199999999999</v>
+        <v>0.020462</v>
       </c>
       <c r="X27" t="n">
-        <v>0.18278</v>
+        <v>0.018278</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.1635399999999999</v>
+        <v>0.01635399999999999</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.1536599999999999</v>
+        <v>0.01536599999999999</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.1635399999999999</v>
+        <v>0.01635399999999999</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.18278</v>
+        <v>0.018278</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.2046199999999999</v>
+        <v>0.020462</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.2275</v>
+        <v>0.02275</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.2506399999999999</v>
+        <v>0.025064</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.2737799999999999</v>
+        <v>0.02737799999999999</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.2971799999999999</v>
+        <v>0.02971799999999999</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.3205799999999999</v>
+        <v>0.032058</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.3439799999999999</v>
+        <v>0.03439799999999999</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.3676399999999999</v>
+        <v>0.03676399999999999</v>
       </c>
       <c r="AK27" t="n">
         <v>0.3910399999999999</v>
@@ -4572,67 +4572,67 @@
         <v>0.39416</v>
       </c>
       <c r="P28" t="n">
-        <v>0.3710199999999999</v>
+        <v>0.037102</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.34788</v>
+        <v>0.034788</v>
       </c>
       <c r="R28" t="n">
-        <v>0.325</v>
+        <v>0.03249999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>0.3021199999999999</v>
+        <v>0.030212</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2794999999999999</v>
+        <v>0.02794999999999999</v>
       </c>
       <c r="U28" t="n">
-        <v>0.2573999999999999</v>
+        <v>0.02574</v>
       </c>
       <c r="V28" t="n">
-        <v>0.23582</v>
+        <v>0.023582</v>
       </c>
       <c r="W28" t="n">
-        <v>0.2152799999999999</v>
+        <v>0.021528</v>
       </c>
       <c r="X28" t="n">
-        <v>0.1968199999999999</v>
+        <v>0.01968199999999999</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.18278</v>
+        <v>0.018278</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.1773199999999999</v>
+        <v>0.01773199999999999</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.18278</v>
+        <v>0.018278</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.1968199999999999</v>
+        <v>0.01968199999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.2152799999999999</v>
+        <v>0.021528</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.23582</v>
+        <v>0.023582</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.2573999999999999</v>
+        <v>0.02574</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.2794999999999999</v>
+        <v>0.02794999999999999</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.3021199999999999</v>
+        <v>0.030212</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.325</v>
+        <v>0.03249999999999999</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.34788</v>
+        <v>0.034788</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.3710199999999999</v>
+        <v>0.037102</v>
       </c>
       <c r="AK28" t="n">
         <v>0.39416</v>
@@ -4724,67 +4724,67 @@
         <v>0.39962</v>
       </c>
       <c r="P29" t="n">
-        <v>0.37674</v>
+        <v>0.037674</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.3541199999999999</v>
+        <v>0.035412</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3320199999999999</v>
+        <v>0.03320199999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>0.30992</v>
+        <v>0.030992</v>
       </c>
       <c r="T29" t="n">
-        <v>0.2886</v>
+        <v>0.02886</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2678</v>
+        <v>0.02678</v>
       </c>
       <c r="V29" t="n">
-        <v>0.2483</v>
+        <v>0.02483</v>
       </c>
       <c r="W29" t="n">
-        <v>0.2303599999999999</v>
+        <v>0.02303599999999999</v>
       </c>
       <c r="X29" t="n">
-        <v>0.2152799999999999</v>
+        <v>0.021528</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.2046199999999999</v>
+        <v>0.020462</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.2009799999999999</v>
+        <v>0.02009799999999999</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.2046199999999999</v>
+        <v>0.020462</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.2152799999999999</v>
+        <v>0.021528</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.2303599999999999</v>
+        <v>0.02303599999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.2483</v>
+        <v>0.02483</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.2678</v>
+        <v>0.02678</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.2886</v>
+        <v>0.02886</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.30992</v>
+        <v>0.030992</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.3320199999999999</v>
+        <v>0.03320199999999999</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.3541199999999999</v>
+        <v>0.035412</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.37674</v>
+        <v>0.037674</v>
       </c>
       <c r="AK29" t="n">
         <v>0.39962</v>
@@ -4876,67 +4876,67 @@
         <v>0.4066399999999999</v>
       </c>
       <c r="P30" t="n">
-        <v>0.3845399999999999</v>
+        <v>0.038454</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3627</v>
+        <v>0.03627</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3413799999999999</v>
+        <v>0.03413799999999999</v>
       </c>
       <c r="S30" t="n">
-        <v>0.3205799999999999</v>
+        <v>0.032058</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3005599999999999</v>
+        <v>0.03005599999999999</v>
       </c>
       <c r="U30" t="n">
-        <v>0.28132</v>
+        <v>0.02813199999999999</v>
       </c>
       <c r="V30" t="n">
-        <v>0.2636399999999999</v>
+        <v>0.026364</v>
       </c>
       <c r="W30" t="n">
-        <v>0.2483</v>
+        <v>0.02483</v>
       </c>
       <c r="X30" t="n">
-        <v>0.23582</v>
+        <v>0.023582</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.2275</v>
+        <v>0.02275</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.22464</v>
+        <v>0.022464</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.2275</v>
+        <v>0.02275</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.23582</v>
+        <v>0.023582</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.2483</v>
+        <v>0.02483</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.2636399999999999</v>
+        <v>0.026364</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.28132</v>
+        <v>0.02813199999999999</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.3005599999999999</v>
+        <v>0.03005599999999999</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.3205799999999999</v>
+        <v>0.032058</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.3413799999999999</v>
+        <v>0.03413799999999999</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.3627</v>
+        <v>0.03627</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.3845399999999999</v>
+        <v>0.038454</v>
       </c>
       <c r="AK30" t="n">
         <v>0.4066399999999999</v>
@@ -5031,61 +5031,61 @@
         <v>0.39416</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.37336</v>
+        <v>0.037336</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3530799999999999</v>
+        <v>0.035308</v>
       </c>
       <c r="S31" t="n">
-        <v>0.3333199999999999</v>
+        <v>0.03333199999999999</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3145999999999999</v>
+        <v>0.03145999999999999</v>
       </c>
       <c r="U31" t="n">
-        <v>0.2971799999999999</v>
+        <v>0.02971799999999999</v>
       </c>
       <c r="V31" t="n">
-        <v>0.28132</v>
+        <v>0.02813199999999999</v>
       </c>
       <c r="W31" t="n">
-        <v>0.2678</v>
+        <v>0.02678</v>
       </c>
       <c r="X31" t="n">
-        <v>0.2573999999999999</v>
+        <v>0.02574</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.2506399999999999</v>
+        <v>0.025064</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.2483</v>
+        <v>0.02483</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.2506399999999999</v>
+        <v>0.025064</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.2573999999999999</v>
+        <v>0.02574</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.2678</v>
+        <v>0.02678</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.28132</v>
+        <v>0.02813199999999999</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.2971799999999999</v>
+        <v>0.02971799999999999</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.3145999999999999</v>
+        <v>0.03145999999999999</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.3333199999999999</v>
+        <v>0.03333199999999999</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.3530799999999999</v>
+        <v>0.035308</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.37336</v>
+        <v>0.037336</v>
       </c>
       <c r="AJ31" t="n">
         <v>0.39416</v>
@@ -5183,61 +5183,61 @@
         <v>0.4056</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3855799999999999</v>
+        <v>0.038558</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3663399999999999</v>
+        <v>0.03663399999999999</v>
       </c>
       <c r="S32" t="n">
-        <v>0.34788</v>
+        <v>0.034788</v>
       </c>
       <c r="T32" t="n">
-        <v>0.3304599999999999</v>
+        <v>0.03304599999999999</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3145999999999999</v>
+        <v>0.03145999999999999</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3005599999999999</v>
+        <v>0.03005599999999999</v>
       </c>
       <c r="W32" t="n">
-        <v>0.2886</v>
+        <v>0.02886</v>
       </c>
       <c r="X32" t="n">
-        <v>0.2794999999999999</v>
+        <v>0.02794999999999999</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.2737799999999999</v>
+        <v>0.02737799999999999</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.2716999999999999</v>
+        <v>0.02716999999999999</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.2737799999999999</v>
+        <v>0.02737799999999999</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.2794999999999999</v>
+        <v>0.02794999999999999</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.2886</v>
+        <v>0.02886</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.3005599999999999</v>
+        <v>0.03005599999999999</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.3145999999999999</v>
+        <v>0.03145999999999999</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.3304599999999999</v>
+        <v>0.03304599999999999</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.34788</v>
+        <v>0.034788</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.3663399999999999</v>
+        <v>0.03663399999999999</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.3855799999999999</v>
+        <v>0.038558</v>
       </c>
       <c r="AJ32" t="n">
         <v>0.4056</v>
@@ -5338,55 +5338,55 @@
         <v>0.39962</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3811599999999999</v>
+        <v>0.038116</v>
       </c>
       <c r="S33" t="n">
-        <v>0.3639999999999999</v>
+        <v>0.03639999999999999</v>
       </c>
       <c r="T33" t="n">
-        <v>0.34788</v>
+        <v>0.034788</v>
       </c>
       <c r="U33" t="n">
-        <v>0.3333199999999999</v>
+        <v>0.03333199999999999</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3205799999999999</v>
+        <v>0.032058</v>
       </c>
       <c r="W33" t="n">
-        <v>0.30992</v>
+        <v>0.030992</v>
       </c>
       <c r="X33" t="n">
-        <v>0.3021199999999999</v>
+        <v>0.030212</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.2971799999999999</v>
+        <v>0.02971799999999999</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.2953599999999999</v>
+        <v>0.02953599999999999</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.2971799999999999</v>
+        <v>0.02971799999999999</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.3021199999999999</v>
+        <v>0.030212</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.30992</v>
+        <v>0.030992</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.3205799999999999</v>
+        <v>0.032058</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.3333199999999999</v>
+        <v>0.03333199999999999</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.34788</v>
+        <v>0.034788</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.3639999999999999</v>
+        <v>0.03639999999999999</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.3811599999999999</v>
+        <v>0.038116</v>
       </c>
       <c r="AI33" t="n">
         <v>0.39962</v>
@@ -5493,49 +5493,49 @@
         <v>0.3975399999999999</v>
       </c>
       <c r="S34" t="n">
-        <v>0.3811599999999999</v>
+        <v>0.038116</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3663399999999999</v>
+        <v>0.03663399999999999</v>
       </c>
       <c r="U34" t="n">
-        <v>0.3530799999999999</v>
+        <v>0.035308</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3413799999999999</v>
+        <v>0.03413799999999999</v>
       </c>
       <c r="W34" t="n">
-        <v>0.3320199999999999</v>
+        <v>0.03320199999999999</v>
       </c>
       <c r="X34" t="n">
-        <v>0.325</v>
+        <v>0.03249999999999999</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.3205799999999999</v>
+        <v>0.032058</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.31902</v>
+        <v>0.031902</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.3205799999999999</v>
+        <v>0.032058</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.325</v>
+        <v>0.03249999999999999</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.3320199999999999</v>
+        <v>0.03320199999999999</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.3413799999999999</v>
+        <v>0.03413799999999999</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.3530799999999999</v>
+        <v>0.035308</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.3663399999999999</v>
+        <v>0.03663399999999999</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.3811599999999999</v>
+        <v>0.038116</v>
       </c>
       <c r="AH34" t="n">
         <v>0.3975399999999999</v>
@@ -5648,43 +5648,43 @@
         <v>0.39962</v>
       </c>
       <c r="T35" t="n">
-        <v>0.3855799999999999</v>
+        <v>0.038558</v>
       </c>
       <c r="U35" t="n">
-        <v>0.37336</v>
+        <v>0.037336</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3627</v>
+        <v>0.03627</v>
       </c>
       <c r="W35" t="n">
-        <v>0.3541199999999999</v>
+        <v>0.035412</v>
       </c>
       <c r="X35" t="n">
-        <v>0.34788</v>
+        <v>0.034788</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.3439799999999999</v>
+        <v>0.03439799999999999</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.3426799999999999</v>
+        <v>0.034268</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.3439799999999999</v>
+        <v>0.03439799999999999</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.34788</v>
+        <v>0.034788</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.3541199999999999</v>
+        <v>0.035412</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.3627</v>
+        <v>0.03627</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.37336</v>
+        <v>0.037336</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.3855799999999999</v>
+        <v>0.038558</v>
       </c>
       <c r="AG35" t="n">
         <v>0.39962</v>
@@ -5806,31 +5806,31 @@
         <v>0.39416</v>
       </c>
       <c r="V36" t="n">
-        <v>0.3845399999999999</v>
+        <v>0.038454</v>
       </c>
       <c r="W36" t="n">
-        <v>0.37674</v>
+        <v>0.037674</v>
       </c>
       <c r="X36" t="n">
-        <v>0.3710199999999999</v>
+        <v>0.037102</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.3676399999999999</v>
+        <v>0.03676399999999999</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.3663399999999999</v>
+        <v>0.03663399999999999</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.3676399999999999</v>
+        <v>0.03676399999999999</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.3710199999999999</v>
+        <v>0.037102</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.37674</v>
+        <v>0.037674</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.3845399999999999</v>
+        <v>0.038454</v>
       </c>
       <c r="AE36" t="n">
         <v>0.39416</v>
